--- a/document/交易大盘数据库设计表@20180329.xlsx
+++ b/document/交易大盘数据库设计表@20180329.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\GitLab\jydp\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\jydp\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B5A8CD3-7C04-4DA7-94F3-45F36A4DACC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B8378059-D83B-4938-943A-BA95B158792B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="系统业务" sheetId="4" r:id="rId4"/>
     <sheet name="盛源链对接" sheetId="5" r:id="rId5"/>
     <sheet name="k线图统计" sheetId="6" r:id="rId6"/>
+    <sheet name="场外交易" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="483">
   <si>
     <t>user_tab</t>
   </si>
@@ -1425,12 +1426,302 @@
     <t>1：未推送，2：已推送</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>otc_dealer_user_tab</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标识经销商表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealerId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识表主键Id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealerName</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_payment_type_tab</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收款方式表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键Id</t>
+  </si>
+  <si>
+    <t>收款银行</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款支行</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人姓名</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人手机号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码地址</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理员Id_x000D_</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款方式标识</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：银行卡，2：支付宝，3：微信</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentType</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentAccount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankCode</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款银行标识</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankBranch</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentName</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentPhone</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentImage</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外交易挂单记录</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>otc_transaction_pend_order_tab</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：出售，2：回购</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余冻结金额</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：未成交，2：部分成交，3：全部成交，4：部分撤销，5：全部撤销</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单比例</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>otc_transaction_user_deal_tab</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外交易成交记录</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：买入，2：卖出，3：撤销</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：待付款，2：已付款（待确认），3：已完成，4：用户取消，5：商家取消</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>otcPendingOrderNo</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单类型</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendingRatio</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendingNumber</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小金额</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大金额</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>minNumber</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNumber</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>已成交数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>otcOrderNo</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>otc_backer_handle_user_coin_tab</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理员增减经销商用户可用币记录</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>(18,4)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>操作时的ip地址</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -1524,6 +1815,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1648,7 +1951,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1927,6 +2230,21 @@
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2278,39 +2596,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.375" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
@@ -2370,7 +2688,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="87"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>16</v>
       </c>
@@ -2394,7 +2712,7 @@
       <c r="J5" s="59"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2734,7 @@
       <c r="J6" s="59"/>
       <c r="K6" s="58"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>20</v>
       </c>
@@ -2438,7 +2756,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>22</v>
       </c>
@@ -2456,13 +2774,13 @@
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="103" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="59"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
         <v>24</v>
       </c>
@@ -2480,11 +2798,11 @@
       </c>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="99"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="59"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
         <v>26</v>
       </c>
@@ -2510,7 +2828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
         <v>31</v>
       </c>
@@ -2536,7 +2854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2562,7 +2880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="57" t="s">
         <v>37</v>
       </c>
@@ -2588,7 +2906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>40</v>
       </c>
@@ -2614,7 +2932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
         <v>43</v>
       </c>
@@ -2634,7 +2952,7 @@
       <c r="J15" s="59"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="57"/>
       <c r="C16" s="93"/>
       <c r="D16" s="94"/>
@@ -2646,23 +2964,23 @@
       <c r="J16" s="94"/>
       <c r="K16" s="95"/>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
-    </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
+    </row>
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="55" t="s">
         <v>2</v>
       </c>
@@ -2694,7 +3012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="57" t="s">
         <v>48</v>
@@ -2724,7 +3042,7 @@
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="57" t="s">
         <v>12</v>
       </c>
@@ -2748,7 +3066,7 @@
       <c r="J20" s="59"/>
       <c r="K20" s="87"/>
     </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
         <v>50</v>
       </c>
@@ -2772,7 +3090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
         <v>53</v>
       </c>
@@ -2794,7 +3112,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="58"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="57" t="s">
         <v>55</v>
       </c>
@@ -2814,7 +3132,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="58"/>
     </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
       <c r="D24" s="68"/>
@@ -2826,23 +3144,23 @@
       <c r="J24" s="68"/>
       <c r="K24" s="67"/>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="55" t="s">
         <v>2</v>
       </c>
@@ -2874,7 +3192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
         <v>59</v>
       </c>
@@ -2902,7 +3220,7 @@
       <c r="J27" s="39"/>
       <c r="K27" s="58"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>12</v>
       </c>
@@ -2926,7 +3244,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="87"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="57" t="s">
         <v>16</v>
       </c>
@@ -2948,7 +3266,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="58"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>62</v>
       </c>
@@ -2970,7 +3288,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="58"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
         <v>22</v>
       </c>
@@ -2992,7 +3310,7 @@
       <c r="J31" s="59"/>
       <c r="K31" s="58"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="57" t="s">
         <v>64</v>
       </c>
@@ -3014,7 +3332,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="58"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="57" t="s">
         <v>66</v>
       </c>
@@ -3038,7 +3356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="57" t="s">
         <v>69</v>
       </c>
@@ -3060,7 +3378,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="58"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
         <v>71</v>
       </c>
@@ -3088,7 +3406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
         <v>73</v>
       </c>
@@ -3108,7 +3426,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="57" t="s">
         <v>74</v>
       </c>
@@ -3126,7 +3444,7 @@
       <c r="J37" s="63"/>
       <c r="K37" s="76"/>
     </row>
-    <row r="38" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
         <v>43</v>
       </c>
@@ -3146,8 +3464,8 @@
       <c r="J38" s="63"/>
       <c r="K38" s="76"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="60" t="s">
         <v>77</v>
       </c>
@@ -3163,7 +3481,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="77"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
         <v>2</v>
       </c>
@@ -3195,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>59</v>
       </c>
@@ -3223,7 +3541,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="58"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
         <v>80</v>
       </c>
@@ -3247,7 +3565,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="58"/>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="57" t="s">
         <v>82</v>
       </c>
@@ -3269,7 +3587,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="58"/>
     </row>
-    <row r="45" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>43</v>
       </c>
@@ -3289,24 +3607,24 @@
       <c r="J45" s="59"/>
       <c r="K45" s="58"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="109" t="s">
+      <c r="C47" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-    </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+    </row>
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="55" t="s">
         <v>2</v>
       </c>
@@ -3338,7 +3656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>87</v>
       </c>
@@ -3366,7 +3684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +3708,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
         <v>90</v>
       </c>
@@ -3414,7 +3732,7 @@
       <c r="J51" s="59"/>
       <c r="K51" s="58"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="57" t="s">
         <v>92</v>
       </c>
@@ -3440,7 +3758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="57" t="s">
         <v>95</v>
       </c>
@@ -3462,7 +3780,7 @@
       <c r="J53" s="59"/>
       <c r="K53" s="58"/>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="57" t="s">
         <v>97</v>
       </c>
@@ -3486,7 +3804,7 @@
       </c>
       <c r="K54" s="58"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="57" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3828,7 @@
       </c>
       <c r="K55" s="58"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="57" t="s">
         <v>73</v>
       </c>
@@ -3534,7 +3852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="57" t="s">
         <v>43</v>
       </c>
@@ -3554,24 +3872,24 @@
       <c r="J57" s="59"/>
       <c r="K57" s="58"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="106" t="s">
+      <c r="C59" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="108"/>
-    </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
+      <c r="K59" s="113"/>
+    </row>
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="55" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="57" t="s">
         <v>59</v>
       </c>
@@ -3631,7 +3949,7 @@
       <c r="J61" s="59"/>
       <c r="K61" s="58"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="57" t="s">
         <v>12</v>
       </c>
@@ -3655,7 +3973,7 @@
       <c r="J62" s="59"/>
       <c r="K62" s="87"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
         <v>16</v>
       </c>
@@ -3677,7 +3995,7 @@
       <c r="J63" s="59"/>
       <c r="K63" s="58"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="57" t="s">
         <v>105</v>
       </c>
@@ -3699,7 +4017,7 @@
       <c r="J64" s="59"/>
       <c r="K64" s="58"/>
     </row>
-    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="57" t="s">
         <v>107</v>
       </c>
@@ -3721,7 +4039,7 @@
       <c r="J65" s="59"/>
       <c r="K65" s="58"/>
     </row>
-    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="57" t="s">
         <v>43</v>
       </c>
@@ -3741,7 +4059,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="76"/>
     </row>
-    <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="57" t="s">
         <v>110</v>
       </c>
@@ -3767,7 +4085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="57" t="s">
         <v>113</v>
       </c>
@@ -3787,7 +4105,7 @@
       <c r="J68" s="59"/>
       <c r="K68" s="58"/>
     </row>
-    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="57" t="s">
         <v>115</v>
       </c>
@@ -3807,7 +4125,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="58"/>
     </row>
-    <row r="70" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="57" t="s">
         <v>117</v>
       </c>
@@ -3825,24 +4143,24 @@
       <c r="J70" s="59"/>
       <c r="K70" s="58"/>
     </row>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="97" t="s">
+      <c r="C72" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="97"/>
-    </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="102"/>
+    </row>
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="55" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +4192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
         <v>12</v>
       </c>
@@ -3894,13 +4212,13 @@
       <c r="H74" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="100" t="s">
+      <c r="I74" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="59"/>
       <c r="K74" s="58"/>
     </row>
-    <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="57" t="s">
         <v>92</v>
       </c>
@@ -3918,11 +4236,11 @@
       </c>
       <c r="G75" s="59"/>
       <c r="H75" s="59"/>
-      <c r="I75" s="101"/>
+      <c r="I75" s="106"/>
       <c r="J75" s="59"/>
       <c r="K75" s="58"/>
     </row>
-    <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="57" t="s">
         <v>121</v>
       </c>
@@ -3946,7 +4264,7 @@
       </c>
       <c r="K76" s="58"/>
     </row>
-    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="57" t="s">
         <v>123</v>
       </c>
@@ -3970,7 +4288,7 @@
       </c>
       <c r="K77" s="58"/>
     </row>
-    <row r="78" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="57" t="s">
         <v>43</v>
       </c>
@@ -4011,35 +4329,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="47.625" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
@@ -4071,7 +4389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
         <v>126</v>
       </c>
@@ -4097,7 +4415,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>128</v>
       </c>
@@ -4119,7 +4437,7 @@
       <c r="J5" s="59"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>130</v>
       </c>
@@ -4143,7 +4461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>133</v>
       </c>
@@ -4167,7 +4485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>43</v>
       </c>
@@ -4187,7 +4505,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
@@ -4199,23 +4517,23 @@
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="s">
         <v>2</v>
       </c>
@@ -4247,7 +4565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
         <v>138</v>
       </c>
@@ -4275,7 +4593,7 @@
       <c r="J12" s="59"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="57" t="s">
         <v>140</v>
       </c>
@@ -4297,7 +4615,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>43</v>
       </c>
@@ -4317,7 +4635,7 @@
       <c r="J14" s="63"/>
       <c r="K14" s="76"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -4329,23 +4647,23 @@
       <c r="J15" s="51"/>
       <c r="K15" s="51"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
         <v>2</v>
       </c>
@@ -4377,7 +4695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
         <v>138</v>
       </c>
@@ -4403,7 +4721,7 @@
       <c r="J18" s="59"/>
       <c r="K18" s="58"/>
     </row>
-    <row r="19" spans="2:11" s="91" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" s="91" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57" t="s">
         <v>144</v>
       </c>
@@ -4425,7 +4743,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="57" t="s">
         <v>43</v>
       </c>
@@ -4445,7 +4763,7 @@
       <c r="J20" s="59"/>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -4457,23 +4775,23 @@
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="s">
         <v>2</v>
       </c>
@@ -4505,7 +4823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
         <v>150</v>
       </c>
@@ -4533,7 +4851,7 @@
       <c r="J24" s="59"/>
       <c r="K24" s="58"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>115</v>
       </c>
@@ -4557,7 +4875,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="58"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="57" t="s">
         <v>154</v>
       </c>
@@ -4577,7 +4895,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="58"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4917,7 @@
       <c r="J27" s="59"/>
       <c r="K27" s="58"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>138</v>
       </c>
@@ -4621,7 +4939,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="58"/>
     </row>
-    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="61" t="s">
         <v>40</v>
       </c>
@@ -4647,7 +4965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>43</v>
       </c>
@@ -4667,7 +4985,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="58"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -4679,23 +4997,23 @@
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="108"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="55" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +5045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="57" t="s">
         <v>48</v>
       </c>
@@ -4755,7 +5073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
         <v>158</v>
       </c>
@@ -4777,7 +5095,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="58"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
         <v>115</v>
       </c>
@@ -4799,7 +5117,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="58"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="57" t="s">
         <v>53</v>
       </c>
@@ -4821,7 +5139,7 @@
       <c r="J37" s="59"/>
       <c r="K37" s="58"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
         <v>55</v>
       </c>
@@ -4841,7 +5159,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="58"/>
     </row>
-    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
@@ -4853,23 +5171,23 @@
       <c r="J39" s="51"/>
       <c r="K39" s="51"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="106" t="s">
+      <c r="C40" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="108"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="113"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +5219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>59</v>
       </c>
@@ -4929,7 +5247,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="58"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
         <v>12</v>
       </c>
@@ -4951,7 +5269,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="58"/>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="57" t="s">
         <v>16</v>
       </c>
@@ -4973,7 +5291,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="58"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>162</v>
       </c>
@@ -4997,7 +5315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="57" t="s">
         <v>26</v>
       </c>
@@ -5023,7 +5341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="57" t="s">
         <v>165</v>
       </c>
@@ -5043,7 +5361,7 @@
       <c r="J47" s="59"/>
       <c r="K47" s="58"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
         <v>53</v>
       </c>
@@ -5065,7 +5383,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="58"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>150</v>
       </c>
@@ -5087,7 +5405,7 @@
       <c r="J49" s="59"/>
       <c r="K49" s="58"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
         <v>115</v>
       </c>
@@ -5109,7 +5427,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="58"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
         <v>43</v>
       </c>
@@ -5129,23 +5447,23 @@
       <c r="J51" s="63"/>
       <c r="K51" s="76"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="108"/>
-    </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="113"/>
+    </row>
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="s">
         <v>2</v>
       </c>
@@ -5177,7 +5495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="57" t="s">
         <v>59</v>
       </c>
@@ -5205,7 +5523,7 @@
       <c r="J55" s="59"/>
       <c r="K55" s="58"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="57" t="s">
         <v>12</v>
       </c>
@@ -5227,7 +5545,7 @@
       <c r="J56" s="59"/>
       <c r="K56" s="58"/>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="57" t="s">
         <v>16</v>
       </c>
@@ -5249,7 +5567,7 @@
       <c r="J57" s="59"/>
       <c r="K57" s="58"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="57" t="s">
         <v>162</v>
       </c>
@@ -5273,7 +5591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="57" t="s">
         <v>26</v>
       </c>
@@ -5299,7 +5617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="57" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5637,7 @@
       <c r="J60" s="59"/>
       <c r="K60" s="58"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="57" t="s">
         <v>53</v>
       </c>
@@ -5341,7 +5659,7 @@
       <c r="J61" s="59"/>
       <c r="K61" s="58"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="57" t="s">
         <v>150</v>
       </c>
@@ -5363,7 +5681,7 @@
       <c r="J62" s="59"/>
       <c r="K62" s="58"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
         <v>115</v>
       </c>
@@ -5385,7 +5703,7 @@
       <c r="J63" s="59"/>
       <c r="K63" s="58"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="57" t="s">
         <v>43</v>
       </c>
@@ -5405,23 +5723,23 @@
       <c r="J64" s="63"/>
       <c r="K64" s="76"/>
     </row>
-    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="106" t="s">
+      <c r="C66" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="108"/>
-    </row>
-    <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="113"/>
+    </row>
+    <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="55" t="s">
         <v>2</v>
       </c>
@@ -5453,7 +5771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="57" t="s">
         <v>59</v>
       </c>
@@ -5481,7 +5799,7 @@
       <c r="J68" s="59"/>
       <c r="K68" s="58"/>
     </row>
-    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="57" t="s">
         <v>12</v>
       </c>
@@ -5503,7 +5821,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="58"/>
     </row>
-    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="57" t="s">
         <v>16</v>
       </c>
@@ -5525,7 +5843,7 @@
       <c r="J70" s="59"/>
       <c r="K70" s="58"/>
     </row>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="57" t="s">
         <v>162</v>
       </c>
@@ -5549,7 +5867,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="57" t="s">
         <v>92</v>
       </c>
@@ -5577,7 +5895,7 @@
       <c r="J72" s="59"/>
       <c r="K72" s="58"/>
     </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="57" t="s">
         <v>26</v>
       </c>
@@ -5603,7 +5921,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
         <v>165</v>
       </c>
@@ -5623,7 +5941,7 @@
       <c r="J74" s="59"/>
       <c r="K74" s="58"/>
     </row>
-    <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="57" t="s">
         <v>53</v>
       </c>
@@ -5645,7 +5963,7 @@
       <c r="J75" s="59"/>
       <c r="K75" s="58"/>
     </row>
-    <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="57" t="s">
         <v>150</v>
       </c>
@@ -5667,7 +5985,7 @@
       <c r="J76" s="59"/>
       <c r="K76" s="58"/>
     </row>
-    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="57" t="s">
         <v>115</v>
       </c>
@@ -5689,7 +6007,7 @@
       <c r="J77" s="59"/>
       <c r="K77" s="58"/>
     </row>
-    <row r="78" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="57" t="s">
         <v>43</v>
       </c>
@@ -5709,23 +6027,23 @@
       <c r="J78" s="63"/>
       <c r="K78" s="76"/>
     </row>
-    <row r="80" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="106" t="s">
+      <c r="C80" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="108"/>
-    </row>
-    <row r="81" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
+      <c r="K80" s="113"/>
+    </row>
+    <row r="81" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="55" t="s">
         <v>2</v>
       </c>
@@ -5757,7 +6075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="57" t="s">
         <v>59</v>
       </c>
@@ -5785,7 +6103,7 @@
       <c r="J82" s="59"/>
       <c r="K82" s="58"/>
     </row>
-    <row r="83" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="57" t="s">
         <v>12</v>
       </c>
@@ -5807,7 +6125,7 @@
       <c r="J83" s="59"/>
       <c r="K83" s="58"/>
     </row>
-    <row r="84" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="57" t="s">
         <v>16</v>
       </c>
@@ -5829,7 +6147,7 @@
       <c r="J84" s="59"/>
       <c r="K84" s="58"/>
     </row>
-    <row r="85" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="57" t="s">
         <v>162</v>
       </c>
@@ -5853,7 +6171,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="57" t="s">
         <v>92</v>
       </c>
@@ -5881,7 +6199,7 @@
       <c r="J86" s="59"/>
       <c r="K86" s="58"/>
     </row>
-    <row r="87" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="57" t="s">
         <v>26</v>
       </c>
@@ -5907,7 +6225,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="57" t="s">
         <v>165</v>
       </c>
@@ -5927,7 +6245,7 @@
       <c r="J88" s="59"/>
       <c r="K88" s="58"/>
     </row>
-    <row r="89" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="57" t="s">
         <v>53</v>
       </c>
@@ -5949,7 +6267,7 @@
       <c r="J89" s="59"/>
       <c r="K89" s="58"/>
     </row>
-    <row r="90" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="57" t="s">
         <v>150</v>
       </c>
@@ -5971,7 +6289,7 @@
       <c r="J90" s="59"/>
       <c r="K90" s="58"/>
     </row>
-    <row r="91" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="57" t="s">
         <v>115</v>
       </c>
@@ -5993,7 +6311,7 @@
       <c r="J91" s="59"/>
       <c r="K91" s="58"/>
     </row>
-    <row r="92" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="57" t="s">
         <v>43</v>
       </c>
@@ -6035,35 +6353,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="47.625" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
@@ -6095,7 +6413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
         <v>92</v>
       </c>
@@ -6123,7 +6441,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>179</v>
       </c>
@@ -6147,7 +6465,7 @@
       <c r="J5" s="59"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
@@ -6171,7 +6489,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>181</v>
       </c>
@@ -6193,7 +6511,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>183</v>
       </c>
@@ -6217,7 +6535,7 @@
       </c>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
         <v>185</v>
       </c>
@@ -6241,7 +6559,7 @@
       </c>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
         <v>187</v>
       </c>
@@ -6263,7 +6581,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
         <v>189</v>
       </c>
@@ -6289,7 +6607,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
         <v>192</v>
       </c>
@@ -6315,7 +6633,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>195</v>
       </c>
@@ -6337,7 +6655,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>115</v>
       </c>
@@ -6359,7 +6677,7 @@
       <c r="J14" s="59"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
@@ -6381,7 +6699,7 @@
       <c r="J15" s="59"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="57" t="s">
         <v>198</v>
       </c>
@@ -6401,7 +6719,7 @@
       <c r="J16" s="59"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="57" t="s">
         <v>43</v>
       </c>
@@ -6421,23 +6739,23 @@
       <c r="J17" s="59"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="55" t="s">
         <v>2</v>
       </c>
@@ -6469,7 +6787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
         <v>202</v>
       </c>
@@ -6497,7 +6815,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
         <v>12</v>
       </c>
@@ -6521,7 +6839,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="87"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="57" t="s">
         <v>16</v>
       </c>
@@ -6545,7 +6863,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
         <v>189</v>
       </c>
@@ -6571,7 +6889,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>92</v>
       </c>
@@ -6595,7 +6913,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="58"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="57" t="s">
         <v>95</v>
       </c>
@@ -6619,7 +6937,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="58"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
         <v>205</v>
       </c>
@@ -6643,7 +6961,7 @@
       </c>
       <c r="K27" s="58"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>207</v>
       </c>
@@ -6667,7 +6985,7 @@
       </c>
       <c r="K28" s="58"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="57" t="s">
         <v>209</v>
       </c>
@@ -6691,7 +7009,7 @@
       </c>
       <c r="K29" s="58"/>
     </row>
-    <row r="30" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>183</v>
       </c>
@@ -6715,7 +7033,7 @@
       </c>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="2:11" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>211</v>
       </c>
@@ -6739,7 +7057,7 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="57" t="s">
         <v>213</v>
       </c>
@@ -6765,7 +7083,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="57" t="s">
         <v>73</v>
       </c>
@@ -6785,7 +7103,7 @@
       <c r="J33" s="59"/>
       <c r="K33" s="58"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="57" t="s">
         <v>216</v>
       </c>
@@ -6803,7 +7121,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="58"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
         <v>43</v>
       </c>
@@ -6823,23 +7141,23 @@
       <c r="J35" s="59"/>
       <c r="K35" s="58"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-    </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+    </row>
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="s">
         <v>2</v>
       </c>
@@ -6871,7 +7189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
         <v>87</v>
       </c>
@@ -6901,7 +7219,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="57" t="s">
         <v>202</v>
       </c>
@@ -6925,7 +7243,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="58"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
         <v>12</v>
       </c>
@@ -6949,7 +7267,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="87"/>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>16</v>
       </c>
@@ -6973,7 +7291,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
         <v>189</v>
       </c>
@@ -6999,7 +7317,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="57" t="s">
         <v>92</v>
       </c>
@@ -7023,7 +7341,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="58"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>95</v>
       </c>
@@ -7047,7 +7365,7 @@
       <c r="J45" s="59"/>
       <c r="K45" s="58"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="57" t="s">
         <v>222</v>
       </c>
@@ -7071,7 +7389,7 @@
       </c>
       <c r="K46" s="58"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="57" t="s">
         <v>121</v>
       </c>
@@ -7095,7 +7413,7 @@
       </c>
       <c r="K47" s="58"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
         <v>224</v>
       </c>
@@ -7117,7 +7435,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="58"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>227</v>
       </c>
@@ -7141,7 +7459,7 @@
       </c>
       <c r="K49" s="58"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
         <v>73</v>
       </c>
@@ -7161,7 +7479,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="58"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
         <v>229</v>
       </c>
@@ -7181,7 +7499,7 @@
       <c r="J51" s="59"/>
       <c r="K51" s="58"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="57" t="s">
         <v>43</v>
       </c>
@@ -7201,23 +7519,23 @@
       <c r="J52" s="59"/>
       <c r="K52" s="58"/>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-    </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+    </row>
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="s">
         <v>2</v>
       </c>
@@ -7249,7 +7567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="57" t="s">
         <v>87</v>
       </c>
@@ -7279,7 +7597,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="57" t="s">
         <v>92</v>
       </c>
@@ -7303,7 +7621,7 @@
       <c r="J57" s="59"/>
       <c r="K57" s="58"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="57" t="s">
         <v>95</v>
       </c>
@@ -7327,7 +7645,7 @@
       <c r="J58" s="59"/>
       <c r="K58" s="58"/>
     </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="57" t="s">
         <v>234</v>
       </c>
@@ -7351,7 +7669,7 @@
       </c>
       <c r="K59" s="58"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="57" t="s">
         <v>121</v>
       </c>
@@ -7375,7 +7693,7 @@
       </c>
       <c r="K60" s="58"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="57" t="s">
         <v>115</v>
       </c>
@@ -7397,7 +7715,7 @@
       <c r="J61" s="59"/>
       <c r="K61" s="58"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="57" t="s">
         <v>53</v>
       </c>
@@ -7419,7 +7737,7 @@
       <c r="J62" s="59"/>
       <c r="K62" s="58"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
         <v>235</v>
       </c>
@@ -7445,7 +7763,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="57" t="s">
         <v>73</v>
       </c>
@@ -7465,7 +7783,7 @@
       <c r="J64" s="59"/>
       <c r="K64" s="58"/>
     </row>
-    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="57" t="s">
         <v>238</v>
       </c>
@@ -7485,7 +7803,7 @@
       <c r="J65" s="59"/>
       <c r="K65" s="58"/>
     </row>
-    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="57" t="s">
         <v>43</v>
       </c>
@@ -7505,23 +7823,23 @@
       <c r="J66" s="59"/>
       <c r="K66" s="58"/>
     </row>
-    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="C68" s="97" t="s">
+      <c r="C68" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="97"/>
-      <c r="K68" s="97"/>
-    </row>
-    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="102"/>
+    </row>
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="55" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="57" t="s">
         <v>59</v>
       </c>
@@ -7581,7 +7899,7 @@
       <c r="J70" s="59"/>
       <c r="K70" s="42"/>
     </row>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="57" t="s">
         <v>87</v>
       </c>
@@ -7605,7 +7923,7 @@
       <c r="J71" s="59"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="57" t="s">
         <v>189</v>
       </c>
@@ -7629,7 +7947,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="57" t="s">
         <v>92</v>
       </c>
@@ -7653,7 +7971,7 @@
       <c r="J73" s="59"/>
       <c r="K73" s="58"/>
     </row>
-    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
         <v>222</v>
       </c>
@@ -7679,7 +7997,7 @@
       </c>
       <c r="K74" s="58"/>
     </row>
-    <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="57" t="s">
         <v>121</v>
       </c>
@@ -7703,7 +8021,7 @@
       </c>
       <c r="K75" s="58"/>
     </row>
-    <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="57" t="s">
         <v>227</v>
       </c>
@@ -7727,7 +8045,7 @@
       </c>
       <c r="K76" s="58"/>
     </row>
-    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="57" t="s">
         <v>43</v>
       </c>
@@ -7749,23 +8067,23 @@
       <c r="J77" s="59"/>
       <c r="K77" s="58"/>
     </row>
-    <row r="79" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="C79" s="97" t="s">
+      <c r="C79" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-    </row>
-    <row r="80" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="102"/>
+    </row>
+    <row r="80" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="55" t="s">
         <v>2</v>
       </c>
@@ -7797,7 +8115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:11" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:11" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="57" t="s">
         <v>87</v>
       </c>
@@ -7825,7 +8143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="57" t="s">
         <v>92</v>
       </c>
@@ -7849,7 +8167,7 @@
       <c r="J82" s="59"/>
       <c r="K82" s="58"/>
     </row>
-    <row r="83" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="57" t="s">
         <v>95</v>
       </c>
@@ -7871,7 +8189,7 @@
       <c r="J83" s="59"/>
       <c r="K83" s="58"/>
     </row>
-    <row r="84" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="57" t="s">
         <v>244</v>
       </c>
@@ -7895,7 +8213,7 @@
       </c>
       <c r="K84" s="58"/>
     </row>
-    <row r="85" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="57" t="s">
         <v>115</v>
       </c>
@@ -7917,7 +8235,7 @@
       <c r="J85" s="59"/>
       <c r="K85" s="58"/>
     </row>
-    <row r="86" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="57" t="s">
         <v>53</v>
       </c>
@@ -7939,7 +8257,7 @@
       <c r="J86" s="59"/>
       <c r="K86" s="58"/>
     </row>
-    <row r="87" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
@@ -7959,23 +8277,23 @@
       <c r="J87" s="59"/>
       <c r="K87" s="58"/>
     </row>
-    <row r="89" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="C89" s="97" t="s">
+      <c r="C89" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="102"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="97"/>
-    </row>
-    <row r="90" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="102"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="102"/>
+      <c r="K89" s="102"/>
+    </row>
+    <row r="90" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="55" t="s">
         <v>2</v>
       </c>
@@ -8007,7 +8325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:11" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:11" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="57" t="s">
         <v>87</v>
       </c>
@@ -8035,7 +8353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:11" s="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:11" s="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="89" t="s">
         <v>248</v>
       </c>
@@ -8051,13 +8369,13 @@
       </c>
       <c r="G92" s="59"/>
       <c r="H92" s="59"/>
-      <c r="I92" s="98" t="s">
+      <c r="I92" s="103" t="s">
         <v>15</v>
       </c>
       <c r="J92" s="59"/>
       <c r="K92" s="87"/>
     </row>
-    <row r="93" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="57" t="s">
         <v>92</v>
       </c>
@@ -8075,11 +8393,11 @@
       </c>
       <c r="G93" s="59"/>
       <c r="H93" s="59"/>
-      <c r="I93" s="111"/>
+      <c r="I93" s="116"/>
       <c r="J93" s="59"/>
       <c r="K93" s="58"/>
     </row>
-    <row r="94" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="57" t="s">
         <v>95</v>
       </c>
@@ -8101,7 +8419,7 @@
       <c r="J94" s="59"/>
       <c r="K94" s="58"/>
     </row>
-    <row r="95" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="57" t="s">
         <v>251</v>
       </c>
@@ -8125,7 +8443,7 @@
       </c>
       <c r="K95" s="58"/>
     </row>
-    <row r="96" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="57" t="s">
         <v>253</v>
       </c>
@@ -8149,7 +8467,7 @@
       </c>
       <c r="K96" s="58"/>
     </row>
-    <row r="97" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="57" t="s">
         <v>244</v>
       </c>
@@ -8173,7 +8491,7 @@
       </c>
       <c r="K97" s="58"/>
     </row>
-    <row r="98" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="57" t="s">
         <v>43</v>
       </c>
@@ -8214,39 +8532,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="105"/>
-    </row>
-    <row r="3" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
@@ -8278,7 +8596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
         <v>59</v>
       </c>
@@ -8306,7 +8624,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>257</v>
       </c>
@@ -8330,7 +8648,7 @@
       <c r="J5" s="59"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>258</v>
       </c>
@@ -8352,7 +8670,7 @@
       <c r="J6" s="59"/>
       <c r="K6" s="58"/>
     </row>
-    <row r="7" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>53</v>
       </c>
@@ -8374,7 +8692,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>43</v>
       </c>
@@ -8394,7 +8712,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
         <v>260</v>
       </c>
@@ -8420,7 +8738,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
         <v>263</v>
       </c>
@@ -8438,7 +8756,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="2:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
@@ -8450,23 +8768,23 @@
       <c r="J11" s="59"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-    </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="55" t="s">
         <v>2</v>
       </c>
@@ -8498,7 +8816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>59</v>
       </c>
@@ -8526,7 +8844,7 @@
       <c r="J14" s="59"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
         <v>267</v>
       </c>
@@ -8548,7 +8866,7 @@
       <c r="J15" s="59"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="57" t="s">
         <v>269</v>
       </c>
@@ -8570,7 +8888,7 @@
       <c r="J16" s="59"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="57" t="s">
         <v>271</v>
       </c>
@@ -8590,7 +8908,7 @@
       <c r="J17" s="59"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
         <v>273</v>
       </c>
@@ -8610,7 +8928,7 @@
       <c r="J18" s="59"/>
       <c r="K18" s="58"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="61" t="s">
         <v>195</v>
       </c>
@@ -8632,7 +8950,7 @@
       <c r="J19" s="59"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="57" t="s">
         <v>43</v>
       </c>
@@ -8652,7 +8970,7 @@
       <c r="J20" s="59"/>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
@@ -8662,23 +8980,23 @@
       <c r="J21" s="62"/>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="s">
         <v>2</v>
       </c>
@@ -8710,7 +9028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
         <v>59</v>
       </c>
@@ -8738,7 +9056,7 @@
       <c r="J24" s="59"/>
       <c r="K24" s="58"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>277</v>
       </c>
@@ -8760,7 +9078,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="58"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="57" t="s">
         <v>279</v>
       </c>
@@ -8782,7 +9100,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="58"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
         <v>271</v>
       </c>
@@ -8802,7 +9120,7 @@
       <c r="J27" s="59"/>
       <c r="K27" s="58"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>273</v>
       </c>
@@ -8822,7 +9140,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="58"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="57" t="s">
         <v>43</v>
       </c>
@@ -8842,7 +9160,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="58"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>281</v>
       </c>
@@ -8860,7 +9178,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="76"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
@@ -8870,23 +9188,23 @@
       <c r="J31" s="62"/>
       <c r="K31" s="75"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="108"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="55" t="s">
         <v>2</v>
       </c>
@@ -8918,7 +9236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="57" t="s">
         <v>59</v>
       </c>
@@ -8946,7 +9264,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="58"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
         <v>285</v>
       </c>
@@ -8968,7 +9286,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="58"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
         <v>287</v>
       </c>
@@ -8990,7 +9308,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="58"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="57" t="s">
         <v>289</v>
       </c>
@@ -9014,7 +9332,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
         <v>292</v>
       </c>
@@ -9034,7 +9352,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="58"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
         <v>43</v>
       </c>
@@ -9054,7 +9372,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="76"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="57" t="s">
         <v>281</v>
       </c>
@@ -9072,7 +9390,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="76"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
       <c r="D41" s="68"/>
@@ -9084,23 +9402,23 @@
       <c r="J41" s="62"/>
       <c r="K41" s="75"/>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108"/>
-    </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="113"/>
+    </row>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="55" t="s">
         <v>2</v>
       </c>
@@ -9132,7 +9450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="57" t="s">
         <v>59</v>
       </c>
@@ -9160,7 +9478,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="58"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>287</v>
       </c>
@@ -9182,7 +9500,7 @@
       <c r="J45" s="59"/>
       <c r="K45" s="58"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="57" t="s">
         <v>285</v>
       </c>
@@ -9204,7 +9522,7 @@
       <c r="J46" s="59"/>
       <c r="K46" s="58"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="57" t="s">
         <v>289</v>
       </c>
@@ -9228,7 +9546,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
         <v>292</v>
       </c>
@@ -9248,7 +9566,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="58"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>43</v>
       </c>
@@ -9268,7 +9586,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="76"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
         <v>281</v>
       </c>
@@ -9286,7 +9604,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="76"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="66"/>
       <c r="C51" s="67"/>
       <c r="D51" s="68"/>
@@ -9298,23 +9616,23 @@
       <c r="J51" s="62"/>
       <c r="K51" s="75"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-    </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+    </row>
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="55" t="s">
         <v>2</v>
       </c>
@@ -9346,7 +9664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="57" t="s">
         <v>59</v>
       </c>
@@ -9374,7 +9692,7 @@
       <c r="J54" s="59"/>
       <c r="K54" s="58"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="57" t="s">
         <v>302</v>
       </c>
@@ -9396,7 +9714,7 @@
       <c r="J55" s="59"/>
       <c r="K55" s="58"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="57" t="s">
         <v>304</v>
       </c>
@@ -9418,7 +9736,7 @@
       <c r="J56" s="59"/>
       <c r="K56" s="58"/>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="57" t="s">
         <v>292</v>
       </c>
@@ -9438,7 +9756,7 @@
       <c r="J57" s="59"/>
       <c r="K57" s="58"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="57" t="s">
         <v>43</v>
       </c>
@@ -9458,23 +9776,23 @@
       <c r="J58" s="63"/>
       <c r="K58" s="76"/>
     </row>
-    <row r="60" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="C60" s="112" t="s">
+      <c r="C60" s="117" t="s">
         <v>308</v>
       </c>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="114"/>
-    </row>
-    <row r="61" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="119"/>
+    </row>
+    <row r="61" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="70" t="s">
         <v>2</v>
       </c>
@@ -9506,7 +9824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="72" t="s">
         <v>309</v>
       </c>
@@ -9532,7 +9850,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="72" t="s">
         <v>313</v>
       </c>
@@ -9554,7 +9872,7 @@
       <c r="J63" s="74"/>
       <c r="K63" s="72"/>
     </row>
-    <row r="64" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="72" t="s">
         <v>315</v>
       </c>
@@ -9578,7 +9896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="72" t="s">
         <v>43</v>
       </c>
@@ -9598,7 +9916,7 @@
       <c r="J65" s="74"/>
       <c r="K65" s="72"/>
     </row>
-    <row r="66" spans="2:12" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="79"/>
       <c r="C66" s="80"/>
       <c r="D66" s="81"/>
@@ -9610,24 +9928,24 @@
       <c r="J66" s="81"/>
       <c r="K66" s="80"/>
     </row>
-    <row r="67" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="105"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="110"/>
       <c r="L67" s="82"/>
     </row>
-    <row r="68" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="55" t="s">
         <v>2</v>
       </c>
@@ -9660,7 +9978,7 @@
       </c>
       <c r="L68" s="82"/>
     </row>
-    <row r="69" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="57" t="s">
         <v>59</v>
       </c>
@@ -9689,7 +10007,7 @@
       <c r="K69" s="58"/>
       <c r="L69" s="82"/>
     </row>
-    <row r="70" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="57" t="s">
         <v>321</v>
       </c>
@@ -9716,7 +10034,7 @@
       </c>
       <c r="L70" s="82"/>
     </row>
-    <row r="71" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="57" t="s">
         <v>324</v>
       </c>
@@ -9739,7 +10057,7 @@
       <c r="K71" s="58"/>
       <c r="L71" s="82"/>
     </row>
-    <row r="72" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="57" t="s">
         <v>326</v>
       </c>
@@ -9766,7 +10084,7 @@
       </c>
       <c r="L72" s="82"/>
     </row>
-    <row r="73" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="57" t="s">
         <v>53</v>
       </c>
@@ -9791,7 +10109,7 @@
       </c>
       <c r="L73" s="82"/>
     </row>
-    <row r="74" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
         <v>330</v>
       </c>
@@ -9816,7 +10134,7 @@
       </c>
       <c r="L74" s="82"/>
     </row>
-    <row r="75" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="57" t="s">
         <v>115</v>
       </c>
@@ -9841,7 +10159,7 @@
       </c>
       <c r="L75" s="82"/>
     </row>
-    <row r="76" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="57" t="s">
         <v>43</v>
       </c>
@@ -9883,37 +10201,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="45"/>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="16" t="s">
         <v>2</v>
@@ -9947,7 +10265,7 @@
       </c>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="17" t="s">
         <v>59</v>
@@ -9977,7 +10295,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
@@ -10003,7 +10321,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="17" t="s">
         <v>16</v>
@@ -10029,7 +10347,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="17" t="s">
         <v>337</v>
@@ -10055,7 +10373,7 @@
       <c r="K6" s="20"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
         <v>339</v>
@@ -10083,7 +10401,7 @@
       </c>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="20" t="s">
         <v>43</v>
@@ -10105,7 +10423,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -10118,24 +10436,24 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="23" t="s">
         <v>2</v>
@@ -10168,7 +10486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="24" t="s">
         <v>344</v>
@@ -10195,7 +10513,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
         <v>12</v>
@@ -10221,7 +10539,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="47"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="29" t="s">
         <v>16</v>
@@ -10246,7 +10564,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="29" t="s">
         <v>347</v>
@@ -10269,7 +10587,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="29" t="s">
         <v>349</v>
@@ -10293,7 +10611,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>351</v>
       </c>
@@ -10313,7 +10631,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>43</v>
       </c>
@@ -10335,7 +10653,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -10347,23 +10665,23 @@
       <c r="J21" s="33"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="122" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-    </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+    </row>
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
         <v>2</v>
       </c>
@@ -10395,7 +10713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
         <v>356</v>
       </c>
@@ -10423,7 +10741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
         <v>92</v>
       </c>
@@ -10447,7 +10765,7 @@
       <c r="J26" s="39"/>
       <c r="K26" s="41"/>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
         <v>95</v>
       </c>
@@ -10469,7 +10787,7 @@
       <c r="J27" s="39"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
         <v>360</v>
       </c>
@@ -10493,7 +10811,7 @@
       </c>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
         <v>362</v>
       </c>
@@ -10517,7 +10835,7 @@
       </c>
       <c r="K29" s="41"/>
     </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>53</v>
       </c>
@@ -10540,7 +10858,7 @@
       <c r="K30" s="40"/>
       <c r="L30" s="49"/>
     </row>
-    <row r="31" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
         <v>330</v>
       </c>
@@ -10563,7 +10881,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="49"/>
     </row>
-    <row r="32" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
         <v>115</v>
       </c>
@@ -10586,7 +10904,7 @@
       <c r="K32" s="40"/>
       <c r="L32" s="49"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
         <v>364</v>
       </c>
@@ -10612,7 +10930,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
         <v>43</v>
       </c>
@@ -10632,25 +10950,25 @@
       <c r="J34" s="28"/>
       <c r="K34" s="38"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="122" t="s">
         <v>368</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>2</v>
       </c>
@@ -10682,7 +11000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>369</v>
       </c>
@@ -10712,7 +11030,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>344</v>
       </c>
@@ -10732,7 +11050,7 @@
       <c r="J40" s="28"/>
       <c r="K40" s="38"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40" t="s">
         <v>92</v>
       </c>
@@ -10756,7 +11074,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="40" t="s">
         <v>12</v>
       </c>
@@ -10780,7 +11098,7 @@
       <c r="J42" s="39"/>
       <c r="K42" s="42"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
         <v>16</v>
       </c>
@@ -10802,7 +11120,7 @@
       <c r="J43" s="39"/>
       <c r="K43" s="41"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="37" t="s">
         <v>372</v>
@@ -10825,7 +11143,7 @@
       <c r="J44" s="28"/>
       <c r="K44" s="38"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="40" t="s">
         <v>95</v>
       </c>
@@ -10847,7 +11165,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="41"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
         <v>121</v>
       </c>
@@ -10869,7 +11187,7 @@
       <c r="J46" s="39"/>
       <c r="K46" s="41"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="40" t="s">
         <v>110</v>
       </c>
@@ -10895,7 +11213,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="40" t="s">
         <v>117</v>
       </c>
@@ -10913,7 +11231,7 @@
       <c r="J48" s="39"/>
       <c r="K48" s="41"/>
     </row>
-    <row r="49" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="40" t="s">
         <v>377</v>
       </c>
@@ -10939,7 +11257,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="2:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
         <v>407</v>
       </c>
@@ -10965,7 +11283,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40" t="s">
         <v>378</v>
       </c>
@@ -10983,7 +11301,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="41"/>
     </row>
-    <row r="52" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
         <v>73</v>
       </c>
@@ -11003,7 +11321,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="41"/>
     </row>
-    <row r="53" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="43" t="s">
         <v>43</v>
       </c>
@@ -11044,34 +11362,34 @@
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="124" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+    </row>
+    <row r="3" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11103,7 +11421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>92</v>
       </c>
@@ -11121,13 +11439,13 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>381</v>
       </c>
@@ -11143,11 +11461,11 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="118"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>383</v>
       </c>
@@ -11171,7 +11489,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>385</v>
       </c>
@@ -11195,7 +11513,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>387</v>
       </c>
@@ -11219,7 +11537,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>389</v>
       </c>
@@ -11243,7 +11561,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>391</v>
       </c>
@@ -11267,24 +11585,24 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="124" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-    </row>
-    <row r="13" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+    </row>
+    <row r="13" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
@@ -11316,7 +11634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>92</v>
       </c>
@@ -11334,13 +11652,13 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>381</v>
       </c>
@@ -11356,11 +11674,11 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="118"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>383</v>
       </c>
@@ -11384,7 +11702,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>385</v>
       </c>
@@ -11408,7 +11726,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>387</v>
       </c>
@@ -11432,7 +11750,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>389</v>
       </c>
@@ -11456,7 +11774,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>391</v>
       </c>
@@ -11480,24 +11798,24 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="124" t="s">
         <v>396</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-    </row>
-    <row r="23" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+    </row>
+    <row r="23" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
@@ -11529,7 +11847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
@@ -11547,13 +11865,13 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="100" t="s">
+      <c r="I24" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>381</v>
       </c>
@@ -11569,11 +11887,11 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="118"/>
+      <c r="I25" s="123"/>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>383</v>
       </c>
@@ -11597,7 +11915,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>385</v>
       </c>
@@ -11621,7 +11939,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>387</v>
       </c>
@@ -11645,7 +11963,7 @@
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>389</v>
       </c>
@@ -11669,7 +11987,7 @@
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>391</v>
       </c>
@@ -11693,24 +12011,24 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="124" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-    </row>
-    <row r="33" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+    </row>
+    <row r="33" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
@@ -11742,7 +12060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>92</v>
       </c>
@@ -11760,13 +12078,13 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="100" t="s">
+      <c r="I34" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>381</v>
       </c>
@@ -11782,11 +12100,11 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="118"/>
+      <c r="I35" s="123"/>
       <c r="J35" s="7"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>383</v>
       </c>
@@ -11810,7 +12128,7 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>385</v>
       </c>
@@ -11834,7 +12152,7 @@
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>387</v>
       </c>
@@ -11858,7 +12176,7 @@
       </c>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>389</v>
       </c>
@@ -11882,7 +12200,7 @@
       </c>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>391</v>
       </c>
@@ -11906,24 +12224,24 @@
       </c>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="124" t="s">
         <v>400</v>
       </c>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-    </row>
-    <row r="43" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+    </row>
+    <row r="43" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
@@ -11955,7 +12273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
@@ -11973,13 +12291,13 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="100" t="s">
+      <c r="I44" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>381</v>
       </c>
@@ -11995,11 +12313,11 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="118"/>
+      <c r="I45" s="123"/>
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>383</v>
       </c>
@@ -12023,7 +12341,7 @@
       </c>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>385</v>
       </c>
@@ -12047,7 +12365,7 @@
       </c>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>387</v>
       </c>
@@ -12071,7 +12389,7 @@
       </c>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>389</v>
       </c>
@@ -12095,7 +12413,7 @@
       </c>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>391</v>
       </c>
@@ -12119,24 +12437,24 @@
       </c>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="124" t="s">
         <v>402</v>
       </c>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-    </row>
-    <row r="53" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+    </row>
+    <row r="53" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>2</v>
       </c>
@@ -12168,7 +12486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>92</v>
       </c>
@@ -12186,13 +12504,13 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="100" t="s">
+      <c r="I54" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>381</v>
       </c>
@@ -12208,11 +12526,11 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="118"/>
+      <c r="I55" s="123"/>
       <c r="J55" s="7"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>383</v>
       </c>
@@ -12236,7 +12554,7 @@
       </c>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>385</v>
       </c>
@@ -12260,7 +12578,7 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>387</v>
       </c>
@@ -12284,7 +12602,7 @@
       </c>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>389</v>
       </c>
@@ -12308,7 +12626,7 @@
       </c>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>391</v>
       </c>
@@ -12332,24 +12650,24 @@
       </c>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C62" s="119" t="s">
+      <c r="C62" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="119"/>
-    </row>
-    <row r="63" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+    </row>
+    <row r="63" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>2</v>
       </c>
@@ -12381,7 +12699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>92</v>
       </c>
@@ -12399,13 +12717,13 @@
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="100" t="s">
+      <c r="I64" s="105" t="s">
         <v>15</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>381</v>
       </c>
@@ -12421,11 +12739,11 @@
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="118"/>
+      <c r="I65" s="123"/>
       <c r="J65" s="7"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>383</v>
       </c>
@@ -12449,7 +12767,7 @@
       </c>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>385</v>
       </c>
@@ -12473,7 +12791,7 @@
       </c>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>387</v>
       </c>
@@ -12497,7 +12815,7 @@
       </c>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>389</v>
       </c>
@@ -12521,7 +12839,7 @@
       </c>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="2:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>391</v>
       </c>
@@ -12566,4 +12884,1934 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D31938-9174-455F-B026-B5A3954C1640}">
+  <dimension ref="B2:K87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="57.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="59">
+        <v>11</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="59">
+        <v>11</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="59">
+        <v>16</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="59">
+        <v>32</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="59">
+        <v>30</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="59">
+        <v>11</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="63">
+        <v>1</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63">
+        <v>1</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="59">
+        <v>100</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="59">
+        <v>11</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="59">
+        <v>11</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="87"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="59">
+        <v>1</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="59">
+        <v>32</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="59">
+        <v>30</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="59">
+        <v>10</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="59">
+        <v>100</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="59">
+        <v>32</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="59">
+        <v>30</v>
+      </c>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="59">
+        <v>150</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="63">
+        <v>1</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63">
+        <v>1</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="59">
+        <v>100</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="58"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="58"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="58"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B32" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B33" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="59">
+        <v>18</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B35" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="59">
+        <v>11</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="87"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="59">
+        <v>16</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="41"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="59">
+        <v>1</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="59">
+        <v>11</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="58"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="59">
+        <v>32</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="58"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B40" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59">
+        <v>0</v>
+      </c>
+      <c r="K40" s="58"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B41" s="57" t="s">
+        <v>470</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59">
+        <v>0</v>
+      </c>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59">
+        <v>0</v>
+      </c>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B43" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59">
+        <v>0</v>
+      </c>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B44" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59">
+        <v>0</v>
+      </c>
+      <c r="K44" s="58"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B45" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59">
+        <v>0</v>
+      </c>
+      <c r="K45" s="41"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B47" s="100" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="99" t="s">
+        <v>459</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="7">
+        <v>32</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="101" t="s">
+        <v>475</v>
+      </c>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B48" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="59">
+        <v>1</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59">
+        <v>1</v>
+      </c>
+      <c r="K48" s="88" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="58"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B50" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="59">
+        <v>100</v>
+      </c>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="58"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B51" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="58"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B52" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="63"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="58"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B54" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B55" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B56" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="59">
+        <v>18</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="59"/>
+      <c r="K56" s="87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B57" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="59">
+        <v>18</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="58"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B58" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="59">
+        <v>11</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="87"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B59" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="59">
+        <v>16</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B60" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="59">
+        <v>1</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B61" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="59">
+        <v>11</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="58"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B62" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="59">
+        <v>32</v>
+      </c>
+      <c r="F62" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="58"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B63" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59">
+        <v>0</v>
+      </c>
+      <c r="K63" s="58"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B64" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59">
+        <v>0</v>
+      </c>
+      <c r="K64" s="58"/>
+    </row>
+    <row r="65" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B65" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59">
+        <v>0</v>
+      </c>
+      <c r="K65" s="58"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B66" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="58"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B67" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59">
+        <v>0</v>
+      </c>
+      <c r="K67" s="58"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B68" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="58"/>
+    </row>
+    <row r="69" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B69" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="63">
+        <v>1</v>
+      </c>
+      <c r="F69" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63">
+        <v>1</v>
+      </c>
+      <c r="K69" s="98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B70" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="59">
+        <v>100</v>
+      </c>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="58"/>
+    </row>
+    <row r="71" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B71" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="58"/>
+    </row>
+    <row r="72" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B72" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="63"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="58"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B74" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="111" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="112"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+    </row>
+    <row r="75" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B75" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B76" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="59">
+        <v>18</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="59"/>
+      <c r="K76" s="58"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B77" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="59">
+        <v>11</v>
+      </c>
+      <c r="F77" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="58"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B78" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="59">
+        <v>16</v>
+      </c>
+      <c r="F78" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="58"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B79" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="59">
+        <v>1</v>
+      </c>
+      <c r="F79" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B80" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="59">
+        <v>11</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="58"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B81" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59">
+        <v>0</v>
+      </c>
+      <c r="K81" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B82" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="C82" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="F82" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="58"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B83" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="59">
+        <v>200</v>
+      </c>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="58"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B84" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="D84" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="59">
+        <v>30</v>
+      </c>
+      <c r="F84" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="58"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B85" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="59">
+        <v>11</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="58"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B86" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="59">
+        <v>16</v>
+      </c>
+      <c r="F86" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="58"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B87" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C74:K74"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C15:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>